--- a/public/template/FORMAT_IMPORT_STOK_COVERING.xlsx
+++ b/public/template/FORMAT_IMPORT_STOK_COVERING.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PEMASUKAN" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>TEMPLATE DATA STOK BARANG JADI UNTUK PEMASUKAN COVERING</t>
   </si>
@@ -72,36 +72,30 @@
     <t>NOTE :</t>
   </si>
   <si>
-    <t>2075P-36F RECYCLED +20D RECPES</t>
-  </si>
-  <si>
-    <t>RW-1 AY</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>ILSIN</t>
-  </si>
-  <si>
-    <t>3.7</t>
+    <t>2070N-24F</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>FUJIAN</t>
+  </si>
+  <si>
+    <t>AIKI</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>SINGLE</t>
   </si>
   <si>
-    <t>RECYCLED</t>
-  </si>
-  <si>
-    <t>Bisa diisi PDK atau keterangan lain</t>
+    <t>NYLON</t>
   </si>
   <si>
     <t>JIKA PEMASUKAN ANGKA POSITIF</t>
   </si>
   <si>
-    <t>3.8</t>
-  </si>
-  <si>
     <t>JIKA PENGELUARAN ANGKA NEGATIF</t>
   </si>
   <si>
@@ -109,41 +103,21 @@
   </si>
   <si>
     <t>PDK/NO MODEL</t>
-  </si>
-  <si>
-    <t>2070D/2-24F</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>NYLON</t>
-  </si>
-  <si>
-    <t>AK2111</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>AK2112</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-yy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="#,000_);[Red]\(#,000\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,19 +150,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF67748E"/>
+      <name val="Open Sans"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -335,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +327,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,12 +393,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,12 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -537,12 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,118 +709,124 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,17 +835,11 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,34 +864,52 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,13 +1445,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42857142857143" style="1" customWidth="1"/>
@@ -1516,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45850</v>
+        <v>45860</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1528,46 +1499,46 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="15" customFormat="1" ht="42" customHeight="1" spans="1:16">
-      <c r="A3" s="16" t="s">
+    <row r="3" s="18" customFormat="1" ht="42" customHeight="1" spans="1:16">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="14"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -1592,58 +1563,323 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1">
-        <v>163</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="M4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:16">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1">
-        <v>163</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="14"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1660,13 +1896,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="8.85714285714286" customWidth="1"/>
@@ -1675,7 +1911,7 @@
     <col min="5" max="5" width="3.71428571428571" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="5.42857142857143" customWidth="1"/>
+    <col min="8" max="8" width="26.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="9.42857142857143" customWidth="1"/>
     <col min="10" max="10" width="13.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
@@ -1684,7 +1920,7 @@
   <sheetData>
     <row r="1" ht="21" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1750,102 +1986,256 @@
       <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="14"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" ht="15.75" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>-60</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-60</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <v>-5</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:17">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" ht="15.75" spans="1:17">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>-60</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-60</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
